--- a/engajamento_cadernos_segmento5.xlsx
+++ b/engajamento_cadernos_segmento5.xlsx
@@ -414,7 +414,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>0.2017451368047518</v>
+        <v>0.2347844905132767</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -425,7 +425,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>0.2768912858068766</v>
+        <v>0.3440668887112966</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -436,7 +436,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>0.3248617415552474</v>
+        <v>0.4673456793719342</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -447,7 +447,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>0.2100102070239202</v>
+        <v>0.4252038582236517</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -458,7 +458,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>0.1350068460909746</v>
+        <v>0.394902939838619</v>
       </c>
     </row>
   </sheetData>
